--- a/data/epa_xls/lmopdataaz.xlsx
+++ b/data/epa_xls/lmopdataaz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LMOP\LFDatabase\Website\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LMOP\LFDatabase\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ADCBF8-FA8F-4AEF-BAFA-C2783906A2E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52682A2C-BDFD-45E7-BEA0-65F68A2B8163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <author>Jeanette Alvis</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{FEF52E99-8F1C-460C-9FA2-2B860D10A611}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{8DEBB832-DD62-40DD-B79A-9AAA79FAD797}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{EF4CCC9E-B7EE-4EE0-96D6-D05686F96481}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B2B2AC2D-7FD2-4766-89FD-471AF38E4629}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{43308446-F8E5-4FD1-9508-0B1B5F9DF69A}">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{0545F5DA-27B0-4DFD-B702-AD87D6CC0C93}">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{64CE53B1-41A9-4C0F-996C-0BFBD6736585}">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{B059269E-1C6D-4664-ABF9-5F290E77C985}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{844704D8-965F-4999-AEBC-685F08C3399F}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{FC6476CB-EE75-43B0-81AC-A64374402FB3}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{FC457F19-FC63-41D4-ACA3-DEDF99FDCA9A}">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{FCD0441A-CBD4-4B96-B788-BFFF75AE6054}">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{5906824C-6B6C-48A5-AE5D-B61F2162DC8E}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{3C34FA16-A316-4DAF-8374-579953068CF2}">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{AF3CE38D-0ECF-44A8-9132-EBE4D914A61A}">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{36AD296B-3EA8-45CF-961E-F61D9E1AA5B3}">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{C4F152F1-EE7D-4E49-9128-0759D6146052}">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{3C25A63D-F164-4961-B2E9-52CD63DBB961}">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{AC49588E-37E2-4E40-9D7F-FB2CA3E81F83}">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{333B191C-B4C5-4326-A866-41DFEEB1C0F3}">
       <text>
         <r>
           <rPr>
@@ -314,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{8FC3AE75-1A25-43E6-8579-BF68BAC1917B}">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{DE5A1749-4F23-4174-879D-E9673B6B3590}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{D7958A16-4D5E-43C7-96E4-912C080A25E2}">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{AEB184A4-FCBF-42F8-A0D6-1419F484E8B9}">
       <text>
         <r>
           <rPr>
@@ -356,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{428EADDE-D395-4F71-8807-160B22CAAFC5}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{79C5D293-3E03-4A17-AE7C-EA8493AEE2A2}">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F86BD08E-0A42-4C0B-A7EB-F7E0D20DC5FF}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{E868650D-15DD-40A3-8C94-9AF3A450A859}">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{204BA802-93FB-490A-BE09-38A7AA7DF630}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{CFEF183C-68EC-47A0-95B7-06CCEEAF171F}">
       <text>
         <r>
           <rPr>
@@ -397,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{D10CC4D0-8283-4673-AE4C-1192B62F4FA2}">
       <text>
         <r>
           <rPr>
@@ -411,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{239418FE-F731-414A-98AD-86C8FA6753AF}">
+    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{3E1E0E32-FE24-42B8-BB9A-E8F9056AF13D}">
       <text>
         <r>
           <rPr>
@@ -425,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{1BDDA7D1-0F18-4699-ACE2-5840040AD874}">
       <text>
         <r>
           <rPr>
@@ -434,12 +434,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Capacity in megawatts for electricity-generating projects
+          <t xml:space="preserve">Actual or estimated electric generation in megawatts for electricity-generating projects
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{5D2FC84C-9BA4-4C51-9916-D6E615883E8C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Rated capacity in megawatts for electricity-generating projects
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{409752E8-B8EA-4468-AE65-662F40660053}">
       <text>
         <r>
           <rPr>
@@ -453,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{4B5AA4C5-3F65-47A1-9D73-EB2BF0D73086}">
       <text>
         <r>
           <rPr>
@@ -467,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{A632EC40-9225-4DA6-BDFC-081D924E16A4}">
       <text>
         <r>
           <rPr>
@@ -486,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="348">
   <si>
     <t>GHGRP ID</t>
   </si>
@@ -567,9 +581,6 @@
   </si>
   <si>
     <t>Project Type Category</t>
-  </si>
-  <si>
-    <t>MW Capacity</t>
   </si>
   <si>
     <t>LFG Flow to Project (mmscfd)</t>
@@ -720,9 +731,6 @@
     <t>Specific type of LFG energy project technology</t>
   </si>
   <si>
-    <t>Capacity in megawatts for electricity-generating projects</t>
-  </si>
-  <si>
     <t>Amount of landfill gas flowing to project or that will flow to the project when it becomes operational in million standard cubic feet per day</t>
   </si>
   <si>
@@ -937,12 +945,6 @@
     <t>City of Tucson, AZ</t>
   </si>
   <si>
-    <t>101803-1</t>
-  </si>
-  <si>
-    <t>Project #1, De-Expansion #1</t>
-  </si>
-  <si>
     <t>Steam Turbine</t>
   </si>
   <si>
@@ -1019,9 +1021,6 @@
   </si>
   <si>
     <t>Mobile</t>
-  </si>
-  <si>
-    <t>85239</t>
   </si>
   <si>
     <t>101836-0</t>
@@ -1253,9 +1252,6 @@
     <t>Lake Havasu Landfill</t>
   </si>
   <si>
-    <t>3251 East Chenowith Drive</t>
-  </si>
-  <si>
     <t>Lake Havasu City</t>
   </si>
   <si>
@@ -1650,6 +1646,36 @@
   </si>
   <si>
     <t>28633 W. Patterson Road</t>
+  </si>
+  <si>
+    <t>Actual MW Generation</t>
+  </si>
+  <si>
+    <t>Rated MW Capacity</t>
+  </si>
+  <si>
+    <t>Actual or estimated electric generation in megawatts for electricity-generating projects</t>
+  </si>
+  <si>
+    <t>Rated capacity in megawatts for electricity-generating projects</t>
+  </si>
+  <si>
+    <t>3251 East Chenoweth Drive</t>
+  </si>
+  <si>
+    <t>1013218</t>
+  </si>
+  <si>
+    <t>Marana Regional Landfill</t>
+  </si>
+  <si>
+    <t>14508 West Avra Valley Road</t>
+  </si>
+  <si>
+    <t>201460-0</t>
+  </si>
+  <si>
+    <t>1004980</t>
   </si>
 </sst>
 </file>
@@ -2073,6 +2099,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2118,19 +2157,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2513,17 +2539,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>45</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="25">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="25">
         <v>3</v>
@@ -2538,36 +2564,36 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A9"/>
@@ -2582,70 +2608,70 @@
       <c r="D10"/>
     </row>
     <row r="11" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="A11" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="61"/>
+      <c r="A12" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="66"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="49"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="49"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="49"/>
+      <c r="A15" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:4" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="49"/>
+      <c r="C17" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="49"/>
+      <c r="A18" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="49"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="54"/>
     </row>
     <row r="20" spans="1:4" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
@@ -2654,20 +2680,20 @@
       <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="49"/>
+      <c r="A21" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="49"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
@@ -2678,16 +2704,16 @@
     <row r="24" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="49"/>
+      <c r="C24" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="54"/>
     </row>
     <row r="25" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="38"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2709,14 +2735,14 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Summary for 
 Current LMOP Landfill and LFG Energy Project Database - Arizona</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF45"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -2751,13 +2777,13 @@
     <col min="25" max="25" width="9.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.44140625" customWidth="1"/>
     <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" style="47" customWidth="1"/>
-    <col min="29" max="29" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="14.33203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.33203125" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2840,45 +2866,48 @@
         <v>25</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC1" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AF1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="63" t="s">
+      <c r="AG1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B2" s="5">
         <v>1768</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="I2" s="5">
         <v>33.42</v>
@@ -2887,10 +2916,10 @@
         <v>-112.1168</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M2" s="5">
         <v>1978</v>
@@ -2899,7 +2928,7 @@
         <v>1995</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P2" s="6">
         <v>10727362</v>
@@ -2908,7 +2937,7 @@
         <v>1995</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" s="5">
         <v>0.56899999999999995</v>
@@ -2917,48 +2946,49 @@
         <v>0.56899999999999995</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-    </row>
-    <row r="3" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+    </row>
+    <row r="3" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10">
         <v>20766</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I3" s="10">
         <v>34.529000000000003</v>
@@ -2967,70 +2997,71 @@
         <v>-109.312</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M3" s="10">
         <v>1990</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W3" s="10"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="10"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-    </row>
-    <row r="4" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+    </row>
+    <row r="4" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B4" s="10">
         <v>1773</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I4" s="10">
         <v>33.378929999999997</v>
@@ -3039,10 +3070,10 @@
         <v>-111.52876999999999</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M4" s="10">
         <v>1972</v>
@@ -3051,68 +3082,69 @@
         <v>2035</v>
       </c>
       <c r="O4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="11">
+        <v>8954724</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="11">
-        <v>8571068</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S4" s="10">
-        <v>0.63</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="T4" s="10">
-        <v>0.63</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>39</v>
+        <v>267</v>
       </c>
       <c r="W4" s="10"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-    </row>
-    <row r="5" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+    </row>
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B5" s="10">
         <v>1783</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I5" s="10">
         <v>33.08</v>
@@ -3121,10 +3153,10 @@
         <v>-112.2757</v>
       </c>
       <c r="K5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="M5" s="10">
         <v>1990</v>
@@ -3133,31 +3165,31 @@
         <v>2052</v>
       </c>
       <c r="O5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="11">
+        <v>38156494</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="11">
-        <v>36767323</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S5" s="10">
-        <v>0.70499999999999996</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="T5" s="10">
-        <v>0.70499999999999996</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X5" s="12">
         <v>37622</v>
@@ -3166,43 +3198,46 @@
         <v>37987</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AB5" s="10"/>
       <c r="AC5" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="65"/>
-    </row>
-    <row r="6" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AD5" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+    </row>
+    <row r="6" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6" s="10">
         <v>1783</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I6" s="10">
         <v>33.08</v>
@@ -3211,10 +3246,10 @@
         <v>-112.2757</v>
       </c>
       <c r="K6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="M6" s="10">
         <v>1990</v>
@@ -3223,68 +3258,69 @@
         <v>2052</v>
       </c>
       <c r="O6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="11">
+        <v>38156494</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="11">
-        <v>36767323</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S6" s="10">
-        <v>0.70499999999999996</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="T6" s="10">
-        <v>0.70499999999999996</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W6" s="10"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-    </row>
-    <row r="7" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+    </row>
+    <row r="7" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B7" s="10">
         <v>12210</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I7" s="10">
         <v>32.767899999999997</v>
@@ -3293,10 +3329,10 @@
         <v>-111.3223</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M7" s="10">
         <v>2004</v>
@@ -3305,64 +3341,65 @@
         <v>2399</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P7" s="11">
-        <v>3792376</v>
+        <v>4172801</v>
       </c>
       <c r="Q7" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-    </row>
-    <row r="8" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+    </row>
+    <row r="8" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B8" s="10">
         <v>20787</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="I8" s="10">
         <v>33.79</v>
@@ -3371,10 +3408,10 @@
         <v>-111.997</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M8" s="10">
         <v>1984</v>
@@ -3383,7 +3420,7 @@
         <v>1999</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P8" s="11">
         <v>1625749</v>
@@ -3392,55 +3429,56 @@
         <v>1999</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-    </row>
-    <row r="9" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+    </row>
+    <row r="9" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B9" s="10">
         <v>1782</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I9" s="10">
         <v>35.307000000000002</v>
@@ -3449,10 +3487,10 @@
         <v>-111.517</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M9" s="10">
         <v>1965</v>
@@ -3461,64 +3499,65 @@
         <v>2054</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" s="11">
-        <v>5363505</v>
+        <v>5474490</v>
       </c>
       <c r="Q9" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W9" s="10"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-    </row>
-    <row r="10" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+    </row>
+    <row r="10" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B10" s="10">
         <v>1781</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I10" s="10">
         <v>33.250999999999998</v>
@@ -3527,10 +3566,10 @@
         <v>-111.82510000000001</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M10" s="10">
         <v>1981</v>
@@ -3539,7 +3578,7 @@
         <v>2005</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P10" s="11">
         <v>2100000</v>
@@ -3548,7 +3587,7 @@
         <v>2001</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S10" s="10">
         <v>0.44800000000000001</v>
@@ -3557,13 +3596,13 @@
         <v>0.44800000000000001</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X10" s="12">
         <v>37174</v>
@@ -3572,43 +3611,46 @@
         <v>38717</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD10" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B11" s="10">
         <v>1781</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I11" s="10">
         <v>33.250999999999998</v>
@@ -3617,10 +3659,10 @@
         <v>-111.82510000000001</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M11" s="10">
         <v>1981</v>
@@ -3629,7 +3671,7 @@
         <v>2005</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P11" s="11">
         <v>2100000</v>
@@ -3638,7 +3680,7 @@
         <v>2001</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S11" s="10">
         <v>0.44800000000000001</v>
@@ -3647,52 +3689,53 @@
         <v>0.44800000000000001</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="65"/>
-    </row>
-    <row r="12" spans="1:32" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+    </row>
+    <row r="12" spans="1:33" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="10">
         <v>1787</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="I12" s="10">
         <v>33.5364</v>
@@ -3701,10 +3744,10 @@
         <v>-112.3065</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M12" s="10">
         <v>1973</v>
@@ -3713,74 +3756,77 @@
         <v>2069</v>
       </c>
       <c r="O12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="11">
+        <v>10737184</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="11">
-        <v>10375494</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S12" s="10">
-        <v>1.528</v>
+        <v>1.5069999999999999</v>
       </c>
       <c r="T12" s="10"/>
       <c r="U12" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W12" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="W12" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="X12" s="12">
         <v>40208</v>
       </c>
       <c r="Y12" s="12"/>
       <c r="Z12" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA12" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10">
         <v>2.8</v>
       </c>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="65">
+      <c r="AD12" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="50">
         <v>0.1265</v>
       </c>
-      <c r="AF12" s="65">
-        <v>0.1479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="24" x14ac:dyDescent="0.25">
+      <c r="AG12" s="50">
+        <v>1.477E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10">
         <v>20767</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I13" s="10">
         <v>31.718</v>
@@ -3789,68 +3835,69 @@
         <v>-110.288</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M13" s="10">
         <v>2001</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="W13" s="10"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
-    </row>
-    <row r="14" spans="1:32" ht="36" x14ac:dyDescent="0.25">
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+    </row>
+    <row r="14" spans="1:33" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="10">
         <v>1784</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I14" s="10">
         <v>32.591500000000003</v>
@@ -3859,15 +3906,15 @@
         <v>-114.6713</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P14" s="11">
         <v>2200000</v>
@@ -3876,55 +3923,56 @@
         <v>1998</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W14" s="10"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA14" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="65"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B15" s="10">
         <v>2414</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I15" s="10">
         <v>32.649000000000001</v>
@@ -3933,74 +3981,75 @@
         <v>-114.05565</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M15" s="10">
         <v>1995</v>
       </c>
       <c r="N15" s="10">
-        <v>2323</v>
+        <v>2313</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P15" s="11">
-        <v>6020257</v>
+        <v>6305886</v>
       </c>
       <c r="Q15" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W15" s="10"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10">
         <v>2335</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I16" s="10">
         <v>33.621000000000002</v>
@@ -4009,68 +4058,69 @@
         <v>-112.0996</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="10">
         <v>1972</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P16" s="11"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="W16" s="10"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
-      <c r="AE16" s="65"/>
-      <c r="AF16" s="65"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="10">
         <v>2390</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="I17" s="10">
         <v>32.999699999999997</v>
@@ -4079,15 +4129,15 @@
         <v>-110.78789999999999</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" s="11">
         <v>8902</v>
@@ -4096,53 +4146,54 @@
         <v>2001</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="W17" s="10"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10"/>
       <c r="AD17" s="10"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-    </row>
-    <row r="18" spans="1:32" ht="48" x14ac:dyDescent="0.25">
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+    </row>
+    <row r="18" spans="1:33" ht="48" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="10">
         <v>20753</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I18" s="10">
         <v>32.68</v>
@@ -4151,70 +4202,71 @@
         <v>-111.291</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M18" s="10">
         <v>2016</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P18" s="11"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="W18" s="10"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA18" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B19" s="10">
         <v>2194</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I19" s="10">
         <v>34.5167</v>
@@ -4223,76 +4275,77 @@
         <v>-112.0483</v>
       </c>
       <c r="K19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="M19" s="10">
         <v>1993</v>
       </c>
       <c r="N19" s="10">
-        <v>2168</v>
+        <v>2177</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P19" s="11">
-        <v>3979716</v>
+        <v>4105943</v>
       </c>
       <c r="Q19" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="V19" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W19" s="10"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA19" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B20" s="10">
         <v>1769</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="I20" s="10">
         <v>32.162700000000001</v>
@@ -4301,10 +4354,10 @@
         <v>-110.7902</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M20" s="10">
         <v>1972</v>
@@ -4313,14 +4366,14 @@
         <v>1997</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P20" s="11">
         <v>2250000</v>
       </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S20" s="10">
         <v>0.38200000000000001</v>
@@ -4329,48 +4382,49 @@
         <v>0.38200000000000001</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="W20" s="10"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA20" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="65"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="10">
         <v>1785</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I21" s="10">
         <v>31.637</v>
@@ -4379,15 +4433,15 @@
         <v>-110.32899999999999</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P21" s="11">
         <v>1200000</v>
@@ -4396,55 +4450,56 @@
         <v>1998</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="V21" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W21" s="10"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA21" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B22" s="10">
         <v>2391</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I22" s="10">
         <v>33.0077</v>
@@ -4453,76 +4508,77 @@
         <v>-111.4316</v>
       </c>
       <c r="K22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="M22" s="10">
         <v>1971</v>
       </c>
       <c r="N22" s="10">
+        <v>2019</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="11">
+        <v>1758896</v>
+      </c>
+      <c r="Q22" s="10">
         <v>2018</v>
       </c>
-      <c r="O22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P22" s="11">
-        <v>1737259</v>
-      </c>
-      <c r="Q22" s="10">
-        <v>2017</v>
-      </c>
       <c r="R22" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W22" s="10"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
-      <c r="AE22" s="65"/>
-      <c r="AF22" s="65"/>
-    </row>
-    <row r="23" spans="1:32" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
+    </row>
+    <row r="23" spans="1:33" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B23" s="10">
         <v>2411</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I23" s="10">
         <v>33.951822</v>
@@ -4531,10 +4587,10 @@
         <v>-114.216539</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M23" s="10">
         <v>1990</v>
@@ -4543,64 +4599,65 @@
         <v>2023</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P23" s="11">
-        <v>3100224</v>
+        <v>3332768</v>
       </c>
       <c r="Q23" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W23" s="10"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA23" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
-      <c r="AE23" s="65"/>
-      <c r="AF23" s="65"/>
-    </row>
-    <row r="24" spans="1:32" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
+    </row>
+    <row r="24" spans="1:33" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B24" s="10">
         <v>2412</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>212</v>
+        <v>342</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="I24" s="10">
         <v>34.546300000000002</v>
@@ -4609,19 +4666,19 @@
         <v>-114.339</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M24" s="10">
         <v>1971</v>
       </c>
       <c r="N24" s="10">
-        <v>2023</v>
+        <v>2030</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P24" s="11">
         <v>2007371</v>
@@ -4630,55 +4687,56 @@
         <v>2017</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W24" s="10"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA24" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
-      <c r="AE24" s="65"/>
-      <c r="AF24" s="65"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B25" s="10">
         <v>12205</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I25" s="10">
         <v>33.682456000000002</v>
@@ -4687,10 +4745,10 @@
         <v>-112.06563300000001</v>
       </c>
       <c r="K25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="M25" s="10">
         <v>1981</v>
@@ -4699,7 +4757,7 @@
         <v>2018</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P25" s="11">
         <v>11158328</v>
@@ -4708,55 +4766,56 @@
         <v>2016</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="V25" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W25" s="10"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA25" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
-      <c r="AE25" s="65"/>
-      <c r="AF25" s="65"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B26" s="10">
         <v>1770</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="I26" s="10">
         <v>32.119199999999999</v>
@@ -4765,174 +4824,172 @@
         <v>-110.88</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M26" s="10">
         <v>1967</v>
       </c>
       <c r="N26" s="10">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="O26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P26" s="11">
+        <v>21897213</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P26" s="11">
-        <v>21057658</v>
-      </c>
-      <c r="Q26" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R26" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S26" s="10">
-        <v>1.5660000000000001</v>
+        <v>1.8859999999999999</v>
       </c>
       <c r="T26" s="10"/>
       <c r="U26" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X26" s="12">
         <v>36509</v>
       </c>
       <c r="Y26" s="12">
-        <v>39813</v>
+        <v>43830</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA26" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AB26" s="10"/>
       <c r="AC26" s="10">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="AD26" s="10"/>
-      <c r="AE26" s="65"/>
-      <c r="AF26" s="65"/>
-    </row>
-    <row r="27" spans="1:32" ht="36" x14ac:dyDescent="0.25">
+      <c r="AE26" s="10">
+        <v>1.56</v>
+      </c>
+      <c r="AF26" s="50">
+        <v>0.1265</v>
+      </c>
+      <c r="AG26" s="50">
+        <v>1.477E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>100</v>
+        <v>343</v>
       </c>
       <c r="B27" s="10">
-        <v>1770</v>
+        <v>21213</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>101</v>
+        <v>344</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E27" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>104</v>
-      </c>
       <c r="H27" s="9" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="I27" s="10">
-        <v>32.119199999999999</v>
+        <v>32.410302000000001</v>
       </c>
       <c r="J27" s="10">
-        <v>-110.88</v>
+        <v>-111.283295</v>
       </c>
       <c r="K27" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="10">
+        <v>2013</v>
+      </c>
+      <c r="N27" s="10">
+        <v>2330</v>
+      </c>
+      <c r="O27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L27" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M27" s="10">
-        <v>1967</v>
-      </c>
-      <c r="N27" s="10">
-        <v>2070</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="P27" s="11">
-        <v>21057658</v>
+        <v>1731274</v>
       </c>
       <c r="Q27" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S27" s="10">
-        <v>1.5660000000000001</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="S27" s="10"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10" t="s">
-        <v>107</v>
+        <v>346</v>
       </c>
       <c r="V27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="W27" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="X27" s="12">
-        <v>39814</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="W27" s="10"/>
+      <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA27" s="10" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="AB27" s="10"/>
-      <c r="AC27" s="10">
-        <v>2.4</v>
-      </c>
+      <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
-      <c r="AE27" s="65">
-        <v>0.18429999999999999</v>
-      </c>
-      <c r="AF27" s="65">
-        <v>0.1268</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" ht="24" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="50"/>
+    </row>
+    <row r="28" spans="1:33" ht="24" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>347</v>
+      </c>
       <c r="B28" s="10">
         <v>2413</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="I28" s="10">
         <v>35.013500000000001</v>
@@ -4941,68 +4998,77 @@
         <v>-114.56699999999999</v>
       </c>
       <c r="K28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="M28" s="10">
+        <v>1990</v>
+      </c>
+      <c r="N28" s="10">
+        <v>2024</v>
+      </c>
+      <c r="O28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="10"/>
+      <c r="P28" s="11">
+        <v>1565328</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>2018</v>
+      </c>
       <c r="R28" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W28" s="10"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA28" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
-      <c r="AE28" s="65"/>
-      <c r="AF28" s="65"/>
-    </row>
-    <row r="29" spans="1:32" ht="36" x14ac:dyDescent="0.25">
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
+    </row>
+    <row r="29" spans="1:33" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B29" s="10">
         <v>1800</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I29" s="10">
         <v>33.465000000000003</v>
@@ -5011,10 +5077,10 @@
         <v>-111.8295</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M29" s="10">
         <v>1970</v>
@@ -5023,7 +5089,7 @@
         <v>1992</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P29" s="11">
         <v>2206102</v>
@@ -5032,7 +5098,7 @@
         <v>1992</v>
       </c>
       <c r="R29" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S29" s="10">
         <v>0.126</v>
@@ -5041,58 +5107,59 @@
         <v>0.126</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="V29" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="X29" s="12">
         <v>43830</v>
       </c>
       <c r="Y29" s="12"/>
       <c r="Z29" s="10" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AA29" s="10" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AB29" s="10" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AC29" s="10"/>
-      <c r="AD29" s="10">
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10">
         <v>4.32</v>
       </c>
-      <c r="AE29" s="65"/>
-      <c r="AF29" s="65"/>
-    </row>
-    <row r="30" spans="1:32" ht="24" x14ac:dyDescent="0.25">
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="50"/>
+    </row>
+    <row r="30" spans="1:33" ht="24" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B30" s="10">
         <v>1786</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I30" s="10">
         <v>33.677999999999997</v>
@@ -5101,88 +5168,93 @@
         <v>-112.48099999999999</v>
       </c>
       <c r="K30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="M30" s="10">
         <v>1983</v>
       </c>
       <c r="N30" s="10">
-        <v>2147</v>
+        <v>2123</v>
       </c>
       <c r="O30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P30" s="11">
+        <v>20117184</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P30" s="11">
-        <v>19108055</v>
-      </c>
-      <c r="Q30" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R30" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S30" s="10">
-        <v>2.024</v>
+        <v>2.4449999999999998</v>
       </c>
       <c r="T30" s="10"/>
       <c r="U30" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W30" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="W30" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="X30" s="12">
         <v>41122</v>
       </c>
       <c r="Y30" s="12"/>
       <c r="Z30" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA30" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AD30" s="10">
         <v>3.2</v>
       </c>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="65">
-        <v>0.14457999999999999</v>
-      </c>
-      <c r="AF30" s="65">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE30" s="10">
+        <v>1.24</v>
+      </c>
+      <c r="AF30" s="50">
+        <v>0.11747</v>
+      </c>
+      <c r="AG30" s="50">
+        <v>1.372E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B31" s="10">
         <v>1771</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I31" s="10">
         <v>34.997999999999998</v>
@@ -5191,10 +5263,10 @@
         <v>-110.3347</v>
       </c>
       <c r="K31" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="M31" s="10">
         <v>1984</v>
@@ -5203,68 +5275,69 @@
         <v>2298</v>
       </c>
       <c r="O31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P31" s="11">
+        <v>3345788</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P31" s="11">
-        <v>3229315</v>
-      </c>
-      <c r="Q31" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R31" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S31" s="10">
-        <v>0.112</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="T31" s="10">
-        <v>0.112</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="V31" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W31" s="10"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA31" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
-      <c r="AE31" s="65"/>
-      <c r="AF31" s="65"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="50"/>
+      <c r="AG31" s="50"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B32" s="10">
         <v>1788</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="I32" s="10">
         <v>33.219499999999996</v>
@@ -5273,10 +5346,10 @@
         <v>-111.6469</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M32" s="10">
         <v>1972</v>
@@ -5285,7 +5358,7 @@
         <v>2007</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P32" s="11">
         <v>4217096</v>
@@ -5294,53 +5367,54 @@
         <v>2007</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="W32" s="10"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA32" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
-      <c r="AE32" s="65"/>
-      <c r="AF32" s="65"/>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="50"/>
+      <c r="AG32" s="50"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="10">
         <v>1789</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="I33" s="10">
         <v>31.519400000000001</v>
@@ -5349,10 +5423,10 @@
         <v>-111.01860000000001</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M33" s="10">
         <v>1981</v>
@@ -5361,7 +5435,7 @@
         <v>2041</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P33" s="11">
         <v>1042941</v>
@@ -5370,7 +5444,7 @@
         <v>2011</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S33" s="10">
         <v>0.36</v>
@@ -5379,50 +5453,51 @@
         <v>0.36</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="V33" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W33" s="10"/>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
       <c r="Z33" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA33" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB33" s="10"/>
       <c r="AC33" s="10"/>
       <c r="AD33" s="10"/>
-      <c r="AE33" s="65"/>
-      <c r="AF33" s="65"/>
-    </row>
-    <row r="34" spans="1:32" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="50"/>
+      <c r="AG33" s="50"/>
+    </row>
+    <row r="34" spans="1:33" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B34" s="10">
         <v>1798</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I34" s="10">
         <v>33.508775</v>
@@ -5431,10 +5506,10 @@
         <v>-111.77821400000001</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M34" s="10">
         <v>1993</v>
@@ -5443,16 +5518,16 @@
         <v>2032</v>
       </c>
       <c r="O34" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P34" s="11">
+        <v>13993500</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R34" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P34" s="11">
-        <v>13543586</v>
-      </c>
-      <c r="Q34" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R34" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S34" s="10">
         <v>2.8</v>
@@ -5461,13 +5536,13 @@
         <v>2.8</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X34" s="12">
         <v>36373</v>
@@ -5476,43 +5551,46 @@
         <v>36892</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA34" s="10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AB34" s="10"/>
       <c r="AC34" s="10">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="65"/>
-      <c r="AF34" s="65"/>
-    </row>
-    <row r="35" spans="1:32" ht="60" x14ac:dyDescent="0.25">
+      <c r="AD34" s="10">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="50"/>
+    </row>
+    <row r="35" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B35" s="10">
         <v>1798</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I35" s="10">
         <v>33.508775</v>
@@ -5521,10 +5599,10 @@
         <v>-111.77821400000001</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M35" s="10">
         <v>1993</v>
@@ -5533,16 +5611,16 @@
         <v>2032</v>
       </c>
       <c r="O35" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P35" s="11">
+        <v>13993500</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R35" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P35" s="11">
-        <v>13543586</v>
-      </c>
-      <c r="Q35" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R35" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S35" s="10">
         <v>2.8</v>
@@ -5551,13 +5629,13 @@
         <v>2.8</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="X35" s="12">
         <v>39508</v>
@@ -5566,43 +5644,46 @@
         <v>42095</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA35" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB35" s="10"/>
       <c r="AC35" s="10">
         <v>2</v>
       </c>
       <c r="AD35" s="10"/>
-      <c r="AE35" s="65"/>
-      <c r="AF35" s="65"/>
-    </row>
-    <row r="36" spans="1:32" ht="36" x14ac:dyDescent="0.25">
+      <c r="AE35" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="50"/>
+    </row>
+    <row r="36" spans="1:33" ht="36" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B36" s="10">
         <v>1798</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I36" s="10">
         <v>33.508775</v>
@@ -5611,10 +5692,10 @@
         <v>-111.77821400000001</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M36" s="10">
         <v>1993</v>
@@ -5623,16 +5704,16 @@
         <v>2032</v>
       </c>
       <c r="O36" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P36" s="11">
+        <v>13993500</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R36" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P36" s="11">
-        <v>13543586</v>
-      </c>
-      <c r="Q36" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R36" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S36" s="10">
         <v>2.8</v>
@@ -5641,56 +5722,57 @@
         <v>2.8</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="X36" s="12">
         <v>43830</v>
       </c>
       <c r="Y36" s="12"/>
       <c r="Z36" s="10" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AA36" s="10" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AB36" s="10" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AC36" s="10"/>
-      <c r="AD36" s="10">
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10">
         <v>4.32</v>
       </c>
-      <c r="AE36" s="65"/>
-      <c r="AF36" s="65"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF36" s="50"/>
+      <c r="AG36" s="50"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="10">
         <v>2392</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>135</v>
+        <v>94</v>
+      </c>
+      <c r="H37" s="9">
+        <v>85239</v>
       </c>
       <c r="I37" s="10">
         <v>33.08</v>
@@ -5699,68 +5781,69 @@
         <v>-112.1253</v>
       </c>
       <c r="K37" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L37" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="V37" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W37" s="10"/>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA37" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB37" s="10"/>
       <c r="AC37" s="10"/>
       <c r="AD37" s="10"/>
-      <c r="AE37" s="65"/>
-      <c r="AF37" s="65"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="50"/>
+      <c r="AG37" s="50"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B38" s="10">
         <v>1790</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I38" s="10">
         <v>33.712760000000003</v>
@@ -5769,10 +5852,10 @@
         <v>-112.12764</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M38" s="10">
         <v>1973</v>
@@ -5781,7 +5864,7 @@
         <v>2005</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P38" s="11">
         <v>16125406</v>
@@ -5790,59 +5873,60 @@
         <v>2005</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S38" s="10">
-        <v>1.7490000000000001</v>
+        <v>1.954</v>
       </c>
       <c r="T38" s="10">
-        <v>1.7490000000000001</v>
+        <v>1.954</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="W38" s="10"/>
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
       <c r="Z38" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA38" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB38" s="10"/>
       <c r="AC38" s="10"/>
       <c r="AD38" s="10"/>
-      <c r="AE38" s="65"/>
-      <c r="AF38" s="65"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="50"/>
+      <c r="AG38" s="50"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B39" s="10">
         <v>20695</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I39" s="10">
         <v>32.568899999999999</v>
@@ -5851,76 +5935,77 @@
         <v>-114.61613</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M39" s="10">
         <v>2001</v>
       </c>
       <c r="N39" s="10">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P39" s="11">
-        <v>2764465</v>
+        <v>2960773</v>
       </c>
       <c r="Q39" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="V39" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W39" s="10"/>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA39" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB39" s="10"/>
       <c r="AC39" s="10"/>
       <c r="AD39" s="10"/>
-      <c r="AE39" s="65"/>
-      <c r="AF39" s="65"/>
-    </row>
-    <row r="40" spans="1:32" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="50"/>
+      <c r="AG39" s="50"/>
+    </row>
+    <row r="40" spans="1:33" ht="24" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B40" s="10">
         <v>1772</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I40" s="10">
         <v>33.34469</v>
@@ -5929,92 +6014,93 @@
         <v>-112.62391</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M40" s="10">
         <v>1997</v>
       </c>
       <c r="N40" s="10">
-        <v>2041</v>
+        <v>2124</v>
       </c>
       <c r="O40" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P40" s="11">
+        <v>13001581</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R40" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P40" s="11">
-        <v>12190830</v>
-      </c>
-      <c r="Q40" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R40" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S40" s="10">
-        <v>0.59299999999999997</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="T40" s="10">
-        <v>0.59299999999999997</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>39</v>
+        <v>267</v>
       </c>
       <c r="W40" s="10"/>
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA40" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB40" s="10"/>
       <c r="AC40" s="10"/>
       <c r="AD40" s="10"/>
-      <c r="AE40" s="65"/>
-      <c r="AF40" s="65"/>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="50"/>
+      <c r="AG40" s="50"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B41" s="10">
         <v>12141</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F41" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="I41" s="10">
+        <v>33.178916999999998</v>
+      </c>
+      <c r="J41" s="10">
+        <v>-112.66485</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="I41" s="10">
-        <v>33.189413999999999</v>
-      </c>
-      <c r="J41" s="10">
-        <v>-112.68092900000001</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>252</v>
       </c>
       <c r="M41" s="10">
         <v>2006</v>
@@ -6023,68 +6109,69 @@
         <v>2100</v>
       </c>
       <c r="O41" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P41" s="11">
+        <v>11689249</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R41" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P41" s="11">
-        <v>10886340</v>
-      </c>
-      <c r="Q41" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R41" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S41" s="10">
-        <v>1.371</v>
+        <v>1.304</v>
       </c>
       <c r="T41" s="10">
-        <v>1.371</v>
+        <v>1.304</v>
       </c>
       <c r="U41" s="10" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="V41" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W41" s="10"/>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
       <c r="Z41" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA41" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB41" s="10"/>
       <c r="AC41" s="10"/>
       <c r="AD41" s="10"/>
-      <c r="AE41" s="65"/>
-      <c r="AF41" s="65"/>
-    </row>
-    <row r="42" spans="1:32" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="50"/>
+      <c r="AG41" s="50"/>
+    </row>
+    <row r="42" spans="1:33" ht="24" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B42" s="10">
         <v>1791</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="I42" s="10">
         <v>32.419440000000002</v>
@@ -6093,10 +6180,10 @@
         <v>-111.1833</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M42" s="10">
         <v>1983</v>
@@ -6105,7 +6192,7 @@
         <v>2013</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P42" s="11">
         <v>3545055</v>
@@ -6114,55 +6201,56 @@
         <v>2013</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="W42" s="10"/>
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
       <c r="Z42" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA42" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB42" s="10"/>
       <c r="AC42" s="10"/>
       <c r="AD42" s="10"/>
-      <c r="AE42" s="65"/>
-      <c r="AF42" s="65"/>
-    </row>
-    <row r="43" spans="1:32" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="50"/>
+      <c r="AG42" s="50"/>
+    </row>
+    <row r="43" spans="1:33" ht="24" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B43" s="10">
         <v>1799</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I43" s="10">
         <v>33.475999999999999</v>
@@ -6171,10 +6259,10 @@
         <v>-111.8295</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M43" s="10">
         <v>1972</v>
@@ -6183,7 +6271,7 @@
         <v>1993</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P43" s="11">
         <v>11500000</v>
@@ -6192,7 +6280,7 @@
         <v>1993</v>
       </c>
       <c r="R43" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S43" s="10">
         <v>0.36</v>
@@ -6201,13 +6289,13 @@
         <v>0.36</v>
       </c>
       <c r="U43" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="V43" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="X43" s="12">
         <v>37012</v>
@@ -6216,43 +6304,46 @@
         <v>42095</v>
       </c>
       <c r="Z43" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA43" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB43" s="10"/>
       <c r="AC43" s="10">
         <v>2</v>
       </c>
       <c r="AD43" s="10"/>
-      <c r="AE43" s="65"/>
-      <c r="AF43" s="65"/>
-    </row>
-    <row r="44" spans="1:32" ht="36" x14ac:dyDescent="0.25">
+      <c r="AE43" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="AF43" s="50"/>
+      <c r="AG43" s="50"/>
+    </row>
+    <row r="44" spans="1:33" ht="36" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B44" s="10">
         <v>1799</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I44" s="10">
         <v>33.475999999999999</v>
@@ -6261,10 +6352,10 @@
         <v>-111.8295</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M44" s="10">
         <v>1972</v>
@@ -6273,7 +6364,7 @@
         <v>1993</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P44" s="11">
         <v>11500000</v>
@@ -6282,7 +6373,7 @@
         <v>1993</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S44" s="10">
         <v>0.36</v>
@@ -6291,56 +6382,57 @@
         <v>0.36</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="X44" s="12">
         <v>43830</v>
       </c>
       <c r="Y44" s="12"/>
       <c r="Z44" s="10" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AA44" s="10" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AB44" s="10" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AC44" s="10"/>
-      <c r="AD44" s="10">
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10">
         <v>4.32</v>
       </c>
-      <c r="AE44" s="65"/>
-      <c r="AF44" s="65"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF44" s="50"/>
+      <c r="AG44" s="50"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="14">
         <v>1</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="I45" s="14">
         <v>32.23565</v>
@@ -6349,10 +6441,10 @@
         <v>-110.8378</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M45" s="14">
         <v>1972</v>
@@ -6361,7 +6453,7 @@
         <v>1987</v>
       </c>
       <c r="O45" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P45" s="15">
         <v>1320000</v>
@@ -6370,7 +6462,7 @@
         <v>1987</v>
       </c>
       <c r="R45" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S45" s="14">
         <v>0.75</v>
@@ -6379,28 +6471,29 @@
         <v>0.75</v>
       </c>
       <c r="U45" s="14" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="V45" s="14" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="W45" s="14"/>
       <c r="X45" s="16"/>
       <c r="Y45" s="16"/>
       <c r="Z45" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA45" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB45" s="14"/>
       <c r="AC45" s="14"/>
       <c r="AD45" s="14"/>
-      <c r="AE45" s="66"/>
-      <c r="AF45" s="66"/>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="51"/>
+      <c r="AG45" s="51"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF45">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG45">
     <sortCondition ref="C2:C45"/>
     <sortCondition ref="U2:U45"/>
   </sortState>
@@ -6409,7 +6502,7 @@
   <pageMargins left="0" right="0" top="0.8" bottom="0.9" header="0.4" footer="0.3"/>
   <pageSetup paperSize="5" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Arizona&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddHeader>
+    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Arizona&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;8&amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
@@ -6421,7 +6514,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -6439,10 +6532,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6450,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6458,7 +6551,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6466,7 +6559,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6474,7 +6567,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6482,7 +6575,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6490,7 +6583,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6498,7 +6591,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6506,7 +6599,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6514,7 +6607,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6522,7 +6615,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6530,7 +6623,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6538,7 +6631,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6546,7 +6639,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6554,7 +6647,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6562,7 +6655,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6570,7 +6663,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6578,7 +6671,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24" x14ac:dyDescent="0.25">
@@ -6586,7 +6679,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6594,7 +6687,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6602,7 +6695,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6610,7 +6703,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6618,7 +6711,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6626,7 +6719,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6634,7 +6727,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6642,7 +6735,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6650,7 +6743,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -6658,47 +6751,55 @@
         <v>25</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>72</v>
+      <c r="A30" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>73</v>
+      <c r="A31" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>75</v>
+      <c r="B34" s="46" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
